--- a/biology/Botanique/Wrightia_tinctoria/Wrightia_tinctoria.xlsx
+++ b/biology/Botanique/Wrightia_tinctoria/Wrightia_tinctoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wrightia tinctoria est une espèce de plantes à fleurs dicotylédones de la famille des Apocynaceae, de la sous-famille des Apocynoideae, originaire du Sud de l'Asie (sous-continent indien, Birmanie).
 Ce sont de petits arbres à feuilles caduques et à latex, pouvant atteindre 15 mètres de haut, aux fleurs blanches ou jaunâtres odorantes, aux fruits secs (follicules) cylindriques, très allongés (jusqu'à 40 cm de long). 
@@ -515,16 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (10 novembre 2020)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 novembre 2020) :
 Allamanda verticillata Desf.
 Alstonia oleandrifolia Lodd. ex Loudon
 Nerium jaspideum Span.
 Nerium tinctorium Sweet (basionyme)
 Wrightia laciniata A.DC.
-Wrightia timorensis Miq.
-Sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (10 novembre 2020)[2] :
+Wrightia timorensis Miq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wrightia_tinctoria</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wrightia_tinctoria</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 novembre 2020) :
 Wrightia tinctoria subsp. rothii (G.Don) Ngan (1965)
 Wrightia tinctoria subsp. tinctoria</t>
         </is>
